--- a/excel_dia_06.08.xlsx
+++ b/excel_dia_06.08.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="42">
   <si>
     <t>Vestuário</t>
   </si>
@@ -141,6 +141,15 @@
   </si>
   <si>
     <t>Total Comissão</t>
+  </si>
+  <si>
+    <t>Vendedor</t>
+  </si>
+  <si>
+    <t>Venda</t>
+  </si>
+  <si>
+    <t>Média de Vendas</t>
   </si>
 </sst>
 </file>
@@ -159,7 +168,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -172,8 +181,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -196,26 +211,341 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="13">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -226,6 +556,28 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:I51" totalsRowShown="0" headerRowDxfId="1" headerRowBorderDxfId="11" tableBorderDxfId="12" totalsRowBorderDxfId="10">
+  <autoFilter ref="A1:I51"/>
+  <tableColumns count="9">
+    <tableColumn id="1" name="data" dataDxfId="9"/>
+    <tableColumn id="2" name="Nº Pedido" dataDxfId="8"/>
+    <tableColumn id="3" name="Categorias" dataDxfId="7"/>
+    <tableColumn id="4" name="Produto" dataDxfId="6"/>
+    <tableColumn id="5" name="Quant" dataDxfId="5"/>
+    <tableColumn id="6" name="vlr Unit" dataDxfId="4"/>
+    <tableColumn id="7" name="vlr total" dataDxfId="0">
+      <calculatedColumnFormula>F2*E2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" name="Vendedores" dataDxfId="3"/>
+    <tableColumn id="9" name="Comissão" dataDxfId="2">
+      <calculatedColumnFormula>G2*5%</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -491,142 +843,145 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
     <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" style="9" customWidth="1"/>
-    <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="6" customWidth="1"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" customWidth="1"/>
+    <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="18" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="2" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
         <v>45809</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>1000</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="3">
         <v>14</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="5">
         <v>79.48</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="2">
         <f>F2*E2</f>
         <v>1112.72</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="7">
         <f>G2*5%</f>
         <v>55.636000000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    <row r="3" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
         <v>45790</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>1001</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="3">
         <v>7</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="5">
         <v>135.72</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="2">
         <f t="shared" ref="G3:G51" si="0">F3*E3</f>
         <v>950.04</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="7">
         <f t="shared" ref="I3:I51" si="1">G3*5%</f>
         <v>47.502000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="4" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
         <v>45779</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>1002</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="3">
         <v>7</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="5">
         <v>281.94</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="2">
         <f t="shared" si="0"/>
         <v>1973.58</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="7">
         <f t="shared" si="1"/>
         <v>98.679000000000002</v>
       </c>
@@ -634,68 +989,68 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+    <row r="5" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
         <v>45754</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>1003</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="3">
         <v>10</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="5">
         <v>326.02999999999997</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="2">
         <f t="shared" si="0"/>
         <v>3260.2999999999997</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="7">
         <f t="shared" si="1"/>
         <v>163.01499999999999</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5" s="2">
         <f>SUM(G:G)</f>
         <v>112930.22</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+    <row r="6" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
         <v>45809</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>1004</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="3">
         <v>14</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="5">
         <v>415.08</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="2">
         <f t="shared" si="0"/>
         <v>5811.12</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="7">
         <f t="shared" si="1"/>
         <v>290.55599999999998</v>
       </c>
@@ -703,68 +1058,68 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+    <row r="7" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
         <v>45761</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>1005</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="3">
         <v>12</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="5">
         <v>307.43</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="2">
         <f t="shared" si="0"/>
         <v>3689.16</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="7">
         <f t="shared" si="1"/>
         <v>184.458</v>
       </c>
-      <c r="L7" s="3">
+      <c r="L7" s="2">
         <f>MAX(G:G)</f>
         <v>7032.47</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+    <row r="8" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
         <v>45767</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>1006</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="3">
         <v>11</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="5">
         <v>282.52999999999997</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="2">
         <f t="shared" si="0"/>
         <v>3107.83</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="7">
         <f t="shared" si="1"/>
         <v>155.39150000000001</v>
       </c>
@@ -772,68 +1127,69 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+    <row r="9" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
         <v>45788</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>1007</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="3">
         <v>5</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="5">
         <v>248.79</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="2">
         <f t="shared" si="0"/>
         <v>1243.95</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="7">
         <f t="shared" si="1"/>
         <v>62.197500000000005</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L9" s="2">
         <f>MIN(G:G)</f>
         <v>49.21</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
         <v>45785</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>1008</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="3">
         <v>16</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="5">
         <v>100.57</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="2">
         <f t="shared" si="0"/>
         <v>1609.12</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="7">
         <f t="shared" si="1"/>
         <v>80.456000000000003</v>
       </c>
@@ -841,1282 +1197,1373 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+    <row r="11" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
         <v>45778</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>1009</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="3">
         <v>19</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="5">
         <v>370.13</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="2">
         <f t="shared" si="0"/>
         <v>7032.47</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="7">
         <f t="shared" si="1"/>
         <v>351.62350000000004</v>
       </c>
-      <c r="L11" s="3">
+      <c r="L11" s="2">
         <f>SUM(I:I)</f>
         <v>5646.5110000000004</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+    <row r="12" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
         <v>45770</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>1010</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="3">
         <v>5</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="5">
         <v>494.25</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="2">
         <f t="shared" si="0"/>
         <v>2471.25</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="7">
         <f t="shared" si="1"/>
         <v>123.5625</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="K12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
         <v>45784</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <v>1011</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="3">
         <v>8</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="5">
         <v>66.14</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="2">
         <f t="shared" si="0"/>
         <v>529.12</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="7">
         <f t="shared" si="1"/>
         <v>26.456000000000003</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+      <c r="K13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L13" s="5">
+        <f>SUMIF(H:H,H13,G:G)</f>
+        <v>20240.13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
         <v>45798</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <v>1012</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="3">
         <v>11</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="5">
         <v>357.2</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="2">
         <f t="shared" si="0"/>
         <v>3929.2</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="7">
         <f t="shared" si="1"/>
         <v>196.46</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+      <c r="K14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L14" s="5">
+        <f>SUMIF(H:H,H2,G:G)</f>
+        <v>21791.410000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
         <v>45804</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <v>1013</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="3">
         <v>2</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="5">
         <v>362.85</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="2">
         <f t="shared" si="0"/>
         <v>725.7</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="7">
         <f t="shared" si="1"/>
         <v>36.285000000000004</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+      <c r="K15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L15" s="5">
+        <f>SUMIF(H:H,H3,G:G)</f>
+        <v>24124.920000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
         <v>45799</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="2">
         <v>1014</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="3">
         <v>9</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="5">
         <v>163.85</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="2">
         <f t="shared" si="0"/>
         <v>1474.6499999999999</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="7">
         <f t="shared" si="1"/>
         <v>73.732500000000002</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+      <c r="K16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L16" s="5">
+        <f>SUMIF(H:H,H5,G:G)</f>
+        <v>19826.59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
         <v>45796</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="2">
         <v>1015</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="3">
         <v>20</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="5">
         <v>39.46</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="2">
         <f t="shared" si="0"/>
         <v>789.2</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="H17" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="7">
         <f t="shared" si="1"/>
         <v>39.460000000000008</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+      <c r="K17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L17" s="5">
+        <f>SUMIF(H:H,H7,G:G)</f>
+        <v>15490.079999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
         <v>45779</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="2">
         <v>1016</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="3">
         <v>16</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="5">
         <v>335.34</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="2">
         <f t="shared" si="0"/>
         <v>5365.44</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="H18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="7">
         <f t="shared" si="1"/>
         <v>268.27199999999999</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+      <c r="K18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L18" s="5">
+        <f>SUMIF(H:H,H14,G:G)</f>
+        <v>11457.09</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
         <v>45802</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="2">
         <v>1017</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="3">
         <v>8</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="5">
         <v>35.61</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="2">
         <f t="shared" si="0"/>
         <v>284.88</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H19" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I19" s="7">
         <f t="shared" si="1"/>
         <v>14.244</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+      <c r="L19" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
         <v>45785</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="2">
         <v>1018</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="3">
         <v>5</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="5">
         <v>175.73</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="2">
         <f t="shared" si="0"/>
         <v>878.65</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="H20" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="7">
         <f t="shared" si="1"/>
         <v>43.932500000000005</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+      <c r="L20" s="5">
+        <f>AVERAGE(G:G)</f>
+        <v>2258.6044000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
         <v>45780</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="2">
         <v>1019</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="3">
         <v>16</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="5">
         <v>48.69</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="2">
         <f t="shared" si="0"/>
         <v>779.04</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="H21" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="7">
         <f t="shared" si="1"/>
         <v>38.951999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+    <row r="22" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
         <v>45764</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="2">
         <v>1020</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="3">
         <v>20</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="5">
         <v>157.96</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="2">
         <f t="shared" si="0"/>
         <v>3159.2000000000003</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="H22" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="7">
         <f t="shared" si="1"/>
         <v>157.96000000000004</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+    <row r="23" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
         <v>45761</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="2">
         <v>1021</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="3">
         <v>12</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="5">
         <v>152.65</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="2">
         <f t="shared" si="0"/>
         <v>1831.8000000000002</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="H23" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I23" s="7">
         <f t="shared" si="1"/>
         <v>91.590000000000018</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+    <row r="24" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
         <v>45798</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="2">
         <v>1022</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="3">
         <v>19</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="5">
         <v>119.16</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" s="2">
         <f t="shared" si="0"/>
         <v>2264.04</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="H24" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I24" s="3">
+      <c r="I24" s="7">
         <f t="shared" si="1"/>
         <v>113.202</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+    <row r="25" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
         <v>45764</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="2">
         <v>1023</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="3">
         <v>7</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F25" s="5">
         <v>424.25</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G25" s="2">
         <f t="shared" si="0"/>
         <v>2969.75</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="H25" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I25" s="3">
+      <c r="I25" s="7">
         <f t="shared" si="1"/>
         <v>148.48750000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
+    <row r="26" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
         <v>45798</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="2">
         <v>1024</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="3">
         <v>9</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F26" s="5">
         <v>274.99</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G26" s="2">
         <f t="shared" si="0"/>
         <v>2474.91</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="H26" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I26" s="3">
+      <c r="I26" s="7">
         <f t="shared" si="1"/>
         <v>123.74549999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+    <row r="27" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="8">
         <v>45806</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="2">
         <v>1025</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27" s="3">
         <v>15</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F27" s="5">
         <v>287.17</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G27" s="2">
         <f t="shared" si="0"/>
         <v>4307.55</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="H27" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I27" s="3">
+      <c r="I27" s="7">
         <f t="shared" si="1"/>
         <v>215.37750000000003</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
+    <row r="28" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="8">
         <v>45807</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="2">
         <v>1026</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E28" s="3">
         <v>4</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F28" s="5">
         <v>216.34</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G28" s="2">
         <f t="shared" si="0"/>
         <v>865.36</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="H28" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I28" s="3">
+      <c r="I28" s="7">
         <f t="shared" si="1"/>
         <v>43.268000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
+    <row r="29" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="8">
         <v>45789</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="2">
         <v>1027</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E29" s="3">
         <v>10</v>
       </c>
-      <c r="F29" s="7">
+      <c r="F29" s="5">
         <v>160.68</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="2">
         <f t="shared" si="0"/>
         <v>1606.8000000000002</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="H29" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="7">
         <f t="shared" si="1"/>
         <v>80.340000000000018</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+    <row r="30" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="8">
         <v>45794</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="2">
         <v>1028</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E30" s="3">
         <v>3</v>
       </c>
-      <c r="F30" s="7">
+      <c r="F30" s="5">
         <v>304.67</v>
       </c>
-      <c r="G30" s="3">
+      <c r="G30" s="2">
         <f t="shared" si="0"/>
         <v>914.01</v>
       </c>
-      <c r="H30" s="3" t="s">
+      <c r="H30" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I30" s="3">
+      <c r="I30" s="7">
         <f t="shared" si="1"/>
         <v>45.700500000000005</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
+    <row r="31" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="8">
         <v>45770</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="2">
         <v>1029</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E31" s="3">
         <v>9</v>
       </c>
-      <c r="F31" s="7">
+      <c r="F31" s="5">
         <v>72.06</v>
       </c>
-      <c r="G31" s="3">
+      <c r="G31" s="2">
         <f t="shared" si="0"/>
         <v>648.54</v>
       </c>
-      <c r="H31" s="3" t="s">
+      <c r="H31" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I31" s="3">
+      <c r="I31" s="7">
         <f t="shared" si="1"/>
         <v>32.427</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
+    <row r="32" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="8">
         <v>45803</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="2">
         <v>1030</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E32" s="3">
         <v>5</v>
       </c>
-      <c r="F32" s="7">
+      <c r="F32" s="5">
         <v>47.25</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G32" s="2">
         <f t="shared" si="0"/>
         <v>236.25</v>
       </c>
-      <c r="H32" s="3" t="s">
+      <c r="H32" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I32" s="3">
+      <c r="I32" s="7">
         <f t="shared" si="1"/>
         <v>11.8125</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
+    <row r="33" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="8">
         <v>45797</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="2">
         <v>1031</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E33" s="5">
+      <c r="E33" s="3">
         <v>8</v>
       </c>
-      <c r="F33" s="7">
+      <c r="F33" s="5">
         <v>131.91999999999999</v>
       </c>
-      <c r="G33" s="3">
+      <c r="G33" s="2">
         <f t="shared" si="0"/>
         <v>1055.3599999999999</v>
       </c>
-      <c r="H33" s="3" t="s">
+      <c r="H33" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I33" s="3">
+      <c r="I33" s="7">
         <f t="shared" si="1"/>
         <v>52.768000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
+    <row r="34" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="8">
         <v>45803</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="2">
         <v>1032</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E34" s="3">
         <v>6</v>
       </c>
-      <c r="F34" s="7">
+      <c r="F34" s="5">
         <v>410.58</v>
       </c>
-      <c r="G34" s="3">
+      <c r="G34" s="2">
         <f t="shared" si="0"/>
         <v>2463.48</v>
       </c>
-      <c r="H34" s="3" t="s">
+      <c r="H34" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I34" s="3">
+      <c r="I34" s="7">
         <f t="shared" si="1"/>
         <v>123.17400000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
+    <row r="35" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="8">
         <v>45794</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35" s="2">
         <v>1033</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E35" s="5">
+      <c r="E35" s="3">
         <v>10</v>
       </c>
-      <c r="F35" s="7">
+      <c r="F35" s="5">
         <v>164.67</v>
       </c>
-      <c r="G35" s="3">
+      <c r="G35" s="2">
         <f t="shared" si="0"/>
         <v>1646.6999999999998</v>
       </c>
-      <c r="H35" s="3" t="s">
+      <c r="H35" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I35" s="3">
+      <c r="I35" s="7">
         <f t="shared" si="1"/>
         <v>82.334999999999994</v>
       </c>
     </row>
-    <row r="36" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
+    <row r="36" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="8">
         <v>45799</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36" s="2">
         <v>1034</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E36" s="5">
+      <c r="E36" s="3">
         <v>16</v>
       </c>
-      <c r="F36" s="7">
+      <c r="F36" s="5">
         <v>37.96</v>
       </c>
-      <c r="G36" s="3">
+      <c r="G36" s="2">
         <f t="shared" si="0"/>
         <v>607.36</v>
       </c>
-      <c r="H36" s="3" t="s">
+      <c r="H36" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I36" s="3">
+      <c r="I36" s="7">
         <f t="shared" si="1"/>
         <v>30.368000000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
+    <row r="37" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="8">
         <v>45806</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37" s="2">
         <v>1035</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E37" s="5">
+      <c r="E37" s="3">
         <v>13</v>
       </c>
-      <c r="F37" s="7">
+      <c r="F37" s="5">
         <v>490.05</v>
       </c>
-      <c r="G37" s="3">
+      <c r="G37" s="2">
         <f t="shared" si="0"/>
         <v>6370.6500000000005</v>
       </c>
-      <c r="H37" s="3" t="s">
+      <c r="H37" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I37" s="3">
+      <c r="I37" s="7">
         <f t="shared" si="1"/>
         <v>318.53250000000003</v>
       </c>
     </row>
-    <row r="38" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
+    <row r="38" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="8">
         <v>45772</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B38" s="2">
         <v>1036</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E38" s="5">
+      <c r="E38" s="3">
         <v>15</v>
       </c>
-      <c r="F38" s="7">
+      <c r="F38" s="5">
         <v>389.63</v>
       </c>
-      <c r="G38" s="3">
+      <c r="G38" s="2">
         <f t="shared" si="0"/>
         <v>5844.45</v>
       </c>
-      <c r="H38" s="3" t="s">
+      <c r="H38" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I38" s="3">
+      <c r="I38" s="7">
         <f t="shared" si="1"/>
         <v>292.22250000000003</v>
       </c>
     </row>
-    <row r="39" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
+    <row r="39" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="8">
         <v>45809</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B39" s="2">
         <v>1037</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E39" s="5">
+      <c r="E39" s="3">
         <v>5</v>
       </c>
-      <c r="F39" s="7">
+      <c r="F39" s="5">
         <v>457.91</v>
       </c>
-      <c r="G39" s="3">
+      <c r="G39" s="2">
         <f t="shared" si="0"/>
         <v>2289.5500000000002</v>
       </c>
-      <c r="H39" s="3" t="s">
+      <c r="H39" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I39" s="3">
+      <c r="I39" s="7">
         <f t="shared" si="1"/>
         <v>114.47750000000002</v>
       </c>
     </row>
-    <row r="40" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
+    <row r="40" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="8">
         <v>45796</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B40" s="2">
         <v>1038</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E40" s="5">
+      <c r="E40" s="3">
         <v>4</v>
       </c>
-      <c r="F40" s="7">
+      <c r="F40" s="5">
         <v>148.93</v>
       </c>
-      <c r="G40" s="3">
+      <c r="G40" s="2">
         <f t="shared" si="0"/>
         <v>595.72</v>
       </c>
-      <c r="H40" s="3" t="s">
+      <c r="H40" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I40" s="3">
+      <c r="I40" s="7">
         <f t="shared" si="1"/>
         <v>29.786000000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
+    <row r="41" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="8">
         <v>45807</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41" s="2">
         <v>1039</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E41" s="5">
+      <c r="E41" s="3">
         <v>1</v>
       </c>
-      <c r="F41" s="7">
+      <c r="F41" s="5">
         <v>49.21</v>
       </c>
-      <c r="G41" s="3">
+      <c r="G41" s="2">
         <f t="shared" si="0"/>
         <v>49.21</v>
       </c>
-      <c r="H41" s="3" t="s">
+      <c r="H41" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I41" s="3">
+      <c r="I41" s="7">
         <f t="shared" si="1"/>
         <v>2.4605000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
+    <row r="42" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="8">
         <v>45753</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42" s="2">
         <v>1040</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E42" s="5">
+      <c r="E42" s="3">
         <v>17</v>
       </c>
-      <c r="F42" s="7">
+      <c r="F42" s="5">
         <v>179.48</v>
       </c>
-      <c r="G42" s="3">
+      <c r="G42" s="2">
         <f t="shared" si="0"/>
         <v>3051.16</v>
       </c>
-      <c r="H42" s="3" t="s">
+      <c r="H42" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I42" s="3">
+      <c r="I42" s="7">
         <f t="shared" si="1"/>
         <v>152.55799999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
+    <row r="43" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="8">
         <v>45802</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B43" s="2">
         <v>1041</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E43" s="5">
+      <c r="E43" s="3">
         <v>11</v>
       </c>
-      <c r="F43" s="7">
+      <c r="F43" s="5">
         <v>28.6</v>
       </c>
-      <c r="G43" s="3">
+      <c r="G43" s="2">
         <f t="shared" si="0"/>
         <v>314.60000000000002</v>
       </c>
-      <c r="H43" s="3" t="s">
+      <c r="H43" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I43" s="3">
+      <c r="I43" s="7">
         <f t="shared" si="1"/>
         <v>15.730000000000002</v>
       </c>
     </row>
-    <row r="44" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
+    <row r="44" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="8">
         <v>45774</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B44" s="2">
         <v>1042</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E44" s="5">
+      <c r="E44" s="3">
         <v>5</v>
       </c>
-      <c r="F44" s="7">
+      <c r="F44" s="5">
         <v>265.92</v>
       </c>
-      <c r="G44" s="3">
+      <c r="G44" s="2">
         <f t="shared" si="0"/>
         <v>1329.6000000000001</v>
       </c>
-      <c r="H44" s="3" t="s">
+      <c r="H44" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I44" s="3">
+      <c r="I44" s="7">
         <f t="shared" si="1"/>
         <v>66.48</v>
       </c>
     </row>
-    <row r="45" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="2">
+    <row r="45" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="8">
         <v>45795</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B45" s="2">
         <v>1043</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E45" s="5">
+      <c r="E45" s="3">
         <v>5</v>
       </c>
-      <c r="F45" s="7">
+      <c r="F45" s="5">
         <v>465.9</v>
       </c>
-      <c r="G45" s="3">
+      <c r="G45" s="2">
         <f t="shared" si="0"/>
         <v>2329.5</v>
       </c>
-      <c r="H45" s="3" t="s">
+      <c r="H45" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I45" s="3">
+      <c r="I45" s="7">
         <f t="shared" si="1"/>
         <v>116.47500000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="2">
+    <row r="46" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="8">
         <v>45808</v>
       </c>
-      <c r="B46" s="3">
+      <c r="B46" s="2">
         <v>1044</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D46" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E46" s="5">
+      <c r="E46" s="3">
         <v>1</v>
       </c>
-      <c r="F46" s="7">
+      <c r="F46" s="5">
         <v>258.75</v>
       </c>
-      <c r="G46" s="3">
+      <c r="G46" s="2">
         <f t="shared" si="0"/>
         <v>258.75</v>
       </c>
-      <c r="H46" s="3" t="s">
+      <c r="H46" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I46" s="3">
+      <c r="I46" s="7">
         <f t="shared" si="1"/>
         <v>12.9375</v>
       </c>
     </row>
-    <row r="47" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="2">
+    <row r="47" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="8">
         <v>45800</v>
       </c>
-      <c r="B47" s="3">
+      <c r="B47" s="2">
         <v>1045</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D47" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E47" s="5">
+      <c r="E47" s="3">
         <v>20</v>
       </c>
-      <c r="F47" s="7">
+      <c r="F47" s="5">
         <v>233.49</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G47" s="2">
         <f t="shared" si="0"/>
         <v>4669.8</v>
       </c>
-      <c r="H47" s="3" t="s">
+      <c r="H47" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I47" s="3">
+      <c r="I47" s="7">
         <f t="shared" si="1"/>
         <v>233.49</v>
       </c>
     </row>
-    <row r="48" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="2">
+    <row r="48" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="8">
         <v>45789</v>
       </c>
-      <c r="B48" s="3">
+      <c r="B48" s="2">
         <v>1046</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D48" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E48" s="5">
+      <c r="E48" s="3">
         <v>12</v>
       </c>
-      <c r="F48" s="7">
+      <c r="F48" s="5">
         <v>287.89</v>
       </c>
-      <c r="G48" s="3">
+      <c r="G48" s="2">
         <f t="shared" si="0"/>
         <v>3454.68</v>
       </c>
-      <c r="H48" s="3" t="s">
+      <c r="H48" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I48" s="3">
+      <c r="I48" s="7">
         <f t="shared" si="1"/>
         <v>172.73400000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="2">
+    <row r="49" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="8">
         <v>45800</v>
       </c>
-      <c r="B49" s="3">
+      <c r="B49" s="2">
         <v>1047</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D49" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E49" s="5">
+      <c r="E49" s="3">
         <v>9</v>
       </c>
-      <c r="F49" s="7">
+      <c r="F49" s="5">
         <v>352.98</v>
       </c>
-      <c r="G49" s="3">
+      <c r="G49" s="2">
         <f t="shared" si="0"/>
         <v>3176.82</v>
       </c>
-      <c r="H49" s="3" t="s">
+      <c r="H49" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I49" s="3">
+      <c r="I49" s="7">
         <f t="shared" si="1"/>
         <v>158.84100000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="2">
+    <row r="50" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="8">
         <v>45774</v>
       </c>
-      <c r="B50" s="3">
+      <c r="B50" s="2">
         <v>1048</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D50" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E50" s="5">
+      <c r="E50" s="3">
         <v>20</v>
       </c>
-      <c r="F50" s="7">
+      <c r="F50" s="5">
         <v>177.67</v>
       </c>
-      <c r="G50" s="3">
+      <c r="G50" s="2">
         <f t="shared" si="0"/>
         <v>3553.3999999999996</v>
       </c>
-      <c r="H50" s="3" t="s">
+      <c r="H50" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I50" s="3">
+      <c r="I50" s="7">
         <f t="shared" si="1"/>
         <v>177.67</v>
       </c>
     </row>
-    <row r="51" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="2">
+    <row r="51" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="9">
         <v>45756</v>
       </c>
-      <c r="B51" s="3">
+      <c r="B51" s="10">
         <v>1049</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D51" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E51" s="5">
+      <c r="E51" s="11">
         <v>15</v>
       </c>
-      <c r="F51" s="7">
+      <c r="F51" s="12">
         <v>104.92</v>
       </c>
-      <c r="G51" s="3">
+      <c r="G51" s="10">
         <f t="shared" si="0"/>
         <v>1573.8</v>
       </c>
-      <c r="H51" s="3" t="s">
+      <c r="H51" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I51" s="3">
+      <c r="I51" s="13">
         <f t="shared" si="1"/>
         <v>78.69</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A1:I51">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF008AEF"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{10BEF905-008A-4A2E-BD11-1C8C2DAAFB1D}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{10BEF905-008A-4A2E-BD11-1C8C2DAAFB1D}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF008AEF"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>A1:I51</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>